--- a/P0102/09_FICHAS/N3-FD-General.xlsx
+++ b/P0102/09_FICHAS/N3-FD-General.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28619"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0102/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="340" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3433099B-0209-435B-B936-03FB44C226D1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="248">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -84,16 +84,724 @@
   </si>
   <si>
     <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0102</t>
+  </si>
+  <si>
+    <t>PR0001</t>
+  </si>
+  <si>
+    <t>R0001</t>
+  </si>
+  <si>
+    <t>Matriz consolidada.xlsx</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS\Matriz consolidada.xlsx</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t>Excel con áreas afectadas por la inundación del 2024 por municipios. Algunos ejemplos son: en San Marcos son afectadas las parcelas El Torno, Campanito, Manosolo, El Chapal y Latan. En Guaranda son afectadas Gavalda, Nueva Esperanza, San Matías, Los Hornos. En Sucre: El Congreso, Cedio, Bajo Grande, La Guaripa, Calzón Blanco. En Ayapel: Barcelona, Alemania, Pañuelo, Sincelejito, Guayabal, Calucha, Banandillas, La Balsa, entre otros. En San Benito se vieron afectados: Chuira, Las Malvinas, Las Pozas, Las Delicias, Pasifueres, Venezuela, entre otros. En Majagual: Chinchorro, Santa Helena, Cortesía, Nuevo Playón, entre otros. En San Jacinto fuero afectados: Caño gil, El Amparo, En Magangué, Nechí, Achí, Caimito, Pinillos y Montecristo no hubo afectación.</t>
+  </si>
+  <si>
+    <t>Base de datos</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Variable: Participación social en la mitigación del riesgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inundación, municipios, afectación, caños, Chuira, Caño Gil, </t>
+  </si>
+  <si>
+    <t>R0002</t>
+  </si>
+  <si>
+    <t>Cartografía social.xlsx</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/Cartograf├нa social.xlsx</t>
+  </si>
+  <si>
+    <t>En este excel se identifican los puntos de interés por municipio y la vereda a la que cada punto pertenece. Incluso, algunos puntos se identifican con coordinadas de latitud y longitud.</t>
+  </si>
+  <si>
+    <t>Veredas, latitud, longitud, Majagual, Guaranda, San Jacinto, San Benito Abad, Ayapel, Sucre, San Marcos.</t>
+  </si>
+  <si>
+    <t>R0003</t>
+  </si>
+  <si>
+    <t>VEREDA_AGUAS_CLARAS</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_AGUAS_CLARAS.gdb</t>
+  </si>
+  <si>
+    <t>Catastro IGAC</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la vereda Aguas Claras, ubicada en el municipio de Ayapel, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Geodatabase</t>
+  </si>
+  <si>
+    <t>Feature class</t>
+  </si>
+  <si>
+    <t>POLITICO_ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>Polígono</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>En la columna 7 se encuentra el nombre de la vereda.</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada,Aguas Claras, Ayapel</t>
+  </si>
+  <si>
+    <t>R0004</t>
+  </si>
+  <si>
+    <t>VEREDA_ALFONZO_LOPEZ</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_ALFONZO_LOPEZ.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la vereda Alfonso Lopez, ubicada en el municipio de Ayapel, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Alfonso Lopez, Ayapel</t>
+  </si>
+  <si>
+    <t>R0005</t>
+  </si>
+  <si>
+    <t>VEREDA_BARANDILLA</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_BARANDILLA.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la vereda Barandilla, ubicada en el municipio de Ayapel, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Barandilla, Ayapel</t>
+  </si>
+  <si>
+    <t>R0006</t>
+  </si>
+  <si>
+    <t>VEREDA_BOCA_DE_LAS_MUJERES</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_BOCA_DE_LAS_MUJERES.gdb</t>
+  </si>
+  <si>
+    <t>ESRI</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la vereda Boca de las mujeres, ubicada en el municipio de Majagual, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Boca de las mujeres, Majagual</t>
+  </si>
+  <si>
+    <t>R0007</t>
+  </si>
+  <si>
+    <t>VEREDA_CARACUCHAS</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_CARACUCHAS.gdb</t>
+  </si>
+  <si>
+    <t>EOT</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la vereda Caracuchas, ubicada en el municipio de Sucre, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Caracuchas, Sucre</t>
+  </si>
+  <si>
+    <t>R0008</t>
+  </si>
+  <si>
+    <t>VEREDA_CECILIA</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_CECILIA.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la vereda Cecilia, ubicada en el municipio de Ayapel, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Cecilia, Ayapel</t>
+  </si>
+  <si>
+    <t>R0009</t>
+  </si>
+  <si>
+    <t>VEREDA_CHINCHORRO</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_CHINCHORRO.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la vereda Chinchorro, ubicada en el municipio de San Benito Abad, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Chinchorro, San Benito Abad</t>
+  </si>
+  <si>
+    <t>R0010</t>
+  </si>
+  <si>
+    <t>VEREDA_EL_CHUPO</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_EL_CHUPO.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la vereda El Chupo, ubicada en el municipio de San Benito Abad, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, El Chupo, San Benito Abad</t>
+  </si>
+  <si>
+    <t>R0011</t>
+  </si>
+  <si>
+    <t>VEREDA_EL_TOTUMO</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_EL_TOTUMO.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la vereda El Totumo, ubicada en el municipio de Ayapel, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, El Totumo, Ayapel</t>
+  </si>
+  <si>
+    <t>R0012</t>
+  </si>
+  <si>
+    <t>VEREDA_GABALDA</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_GABALDA.gdb</t>
+  </si>
+  <si>
+    <t>ALCALDIA MUNICIPAL</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la vereda Gabalda, ubicada en el municipio de Guaranda, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Gabalda, Guaranda</t>
+  </si>
+  <si>
+    <t>R0013</t>
+  </si>
+  <si>
+    <t>VEREDA_NUEVA_ESPERANZA</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_NUEVA_ESPERANZA.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la vereda Nueva Esperanza, ubicada en el municipio de Guaranda, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Nueva Esperanza, Guaranda</t>
+  </si>
+  <si>
+    <t>R0014</t>
+  </si>
+  <si>
+    <t>VEREDA_PASIFUERES</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_PASIFUERES.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la vereda Pasifueres, ubicada en el municipio de San Benito Abad, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Pasifueres, San Benito Abad</t>
+  </si>
+  <si>
+    <t>R0015</t>
+  </si>
+  <si>
+    <t>Canios_Ayapel</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/Canios_Ayapel.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de los caños del municipio de Ayapel, en la tabla de atributos se encuentra la longitud, localización en coordenadas, lugar de inicio y de final de cada caño</t>
+  </si>
+  <si>
+    <t>MEDIO ABIÓTICO</t>
+  </si>
+  <si>
+    <t>Línea</t>
+  </si>
+  <si>
+    <t>En la columna 2 se encuentra la longitud del caño, en la 3 el nombre</t>
+  </si>
+  <si>
+    <t>Caño, longitud de caño, Ayapel</t>
+  </si>
+  <si>
+    <t>R0016</t>
+  </si>
+  <si>
+    <t>Canios_Guaranda</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/Canios_Guaranda.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de los caños del municipio de Guaranda, en la tabla de atributos se encuentra la longitud, localización en coordenadas, lugar de inicio y de final de cada caño</t>
+  </si>
+  <si>
+    <t>Caño, longitud de caño, Guaranda</t>
+  </si>
+  <si>
+    <t>R0017</t>
+  </si>
+  <si>
+    <t>Canios_Majagual</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/Canios_Majagual.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de los caños del municipio de Majagual, en la tabla de atributos se encuentra la longitud, localización en coordenadas, lugar de inicio y de final de cada caño</t>
+  </si>
+  <si>
+    <t>Caño, longitud de caño, Majagual</t>
+  </si>
+  <si>
+    <t>R0018</t>
+  </si>
+  <si>
+    <t>Canios_San_Benito_Abad</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/Canios_San_Benito_Abad.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de los caños del municipio de San Benito Abad, en la tabla de atributos se encuentra la longitud, localización en coordenadas, lugar de inicio y de final de cada caño</t>
+  </si>
+  <si>
+    <t>Caño, longitud de caño, San Benito Abad</t>
+  </si>
+  <si>
+    <t>R0019</t>
+  </si>
+  <si>
+    <t>Canios_San_Jacinto_del_Cauca</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/Canios_San_Jacinto_del_Cauca.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de los caños del municipio de San Jacinto del Cauca, en la tabla de atributos se encuentra la longitud, localización en coordenadas, lugar de inicio y de final de cada caño</t>
+  </si>
+  <si>
+    <t>Caño, longitud de caño, San Jacinto del Cauca</t>
+  </si>
+  <si>
+    <t>R0020</t>
+  </si>
+  <si>
+    <t>Canios_Sucre</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/Canios_Sucre.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de los caños del municipio de Sucre (Sucre), en la tabla de atributos se encuentra la longitud, localización en coordenadas, lugar de inicio y de final de cada caño</t>
+  </si>
+  <si>
+    <t>Caño, longitud de caño, Sucre (Sucre)</t>
+  </si>
+  <si>
+    <t>R0021</t>
+  </si>
+  <si>
+    <t>VEREDA_PUEBLO_NUEVO</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_PUEBLO_NUEVO.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la vereda Pueblo Nuevo, ubicada en el municipio de Sucre, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Pueblo Nuevo, Sucre</t>
+  </si>
+  <si>
+    <t>R0022</t>
+  </si>
+  <si>
+    <t>VEREDA_REMOLINO</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_REMOLINO.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la vereda Remolino, ubicada en el municipio de San Benito de Abad del departamento de Sucre, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Remolino, San Benito de Abad, Sucre</t>
+  </si>
+  <si>
+    <t>R0023</t>
+  </si>
+  <si>
+    <t>VEREDA_SAN_JORGE_ABAJO</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_SAN_JORGE_ABAJO.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la vereda San Jorge Abajo, ubicada en el municipio de Ayapel del departamento de Córdoba, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, San Jorge Abajo, Ayapel, Córdoba</t>
+  </si>
+  <si>
+    <t>R0024</t>
+  </si>
+  <si>
+    <t>VEREDA_SANTA_FE</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_SANTA_FE.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la vereda Santa Fé, ubicada en el municipio de San Benito de Abad del departamento de Sucre, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Santa Fé, San Benito de Abad, Sucre</t>
+  </si>
+  <si>
+    <t>R0025</t>
+  </si>
+  <si>
+    <t>VEREDA_SIN_DEFINIR</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_SIN_DEFINIR.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la una vereda no identificada del municipio de Sucre, Sucre, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>En la columna 12 se encuentra el área total de la vereda en hectáreas.</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Sucre</t>
+  </si>
+  <si>
+    <t>R0026</t>
+  </si>
+  <si>
+    <t>VEREDA_SIN_DEFINIR_13655016</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_SIN_DEFINIR_13655016.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la una vereda no identificada del municipio de San Jacinto del Cauca, Bolívar, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, San Jacinto del Cauca, Bolívar</t>
+  </si>
+  <si>
+    <t>R0027</t>
+  </si>
+  <si>
+    <t>VEREDA_SIN_DEFINIR_13655019</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_SIN_DEFINIR_13655019.gdb</t>
+  </si>
+  <si>
+    <t>R0028</t>
+  </si>
+  <si>
+    <t>VEREDA_SIN_DEFINIR_13655027</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_SIN_DEFINIR_13655027.gdb</t>
+  </si>
+  <si>
+    <t>R0029</t>
+  </si>
+  <si>
+    <t>VEREDA_SIN_DEFINIR_70429017</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_SIN_DEFINIR_70429017.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la una vereda no identificada del municipio de Majagual, Sucre, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Majagual, Sucre</t>
+  </si>
+  <si>
+    <t>R0030</t>
+  </si>
+  <si>
+    <t>VEREDA_SIN_DEFINIR_70429021</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_SIN_DEFINIR_70429021.gdb</t>
+  </si>
+  <si>
+    <t>R0031</t>
+  </si>
+  <si>
+    <t>VEREDA_SIN_DEFINIR_70429023</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_SIN_DEFINIR_70429023.gdb</t>
+  </si>
+  <si>
+    <t>R0032</t>
+  </si>
+  <si>
+    <t>VEREDA_SIN_DEFINIR_70678017</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_SIN_DEFINIR_70678017.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la una vereda no identificada del municipio de San Benito de Abad, Sucre, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, San Benito de Abad, Sucre</t>
+  </si>
+  <si>
+    <t>R0033</t>
+  </si>
+  <si>
+    <t>VEREDA_SIN_DEFINIR_70678032</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_SIN_DEFINIR_70678032.gdb</t>
+  </si>
+  <si>
+    <t>R0034</t>
+  </si>
+  <si>
+    <t>VEREDA_SIN_DEFINIR_70678036</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_SIN_DEFINIR_70678036.gdb</t>
+  </si>
+  <si>
+    <t>R0035</t>
+  </si>
+  <si>
+    <t>VEREDA_SINCELEJITO</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_SINCELEJITO.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la vereda Sincelejito, ubicada en el municipio de Ayapel del departamento de Córdoba, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Sincelejito, Ayapel, Córdoba</t>
+  </si>
+  <si>
+    <t>R0036</t>
+  </si>
+  <si>
+    <t>VEREDA_SINCELEJITO_Majagual</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_SINCELEJITO_Majagual.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la vereda Sincelejito, ubicada en el municipio de Majagual del departamento de Sucre, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Sincelejito, Majagual, Sucre</t>
+  </si>
+  <si>
+    <t>R0037</t>
+  </si>
+  <si>
+    <t>VEREDA_VENEZUELA</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/SHP/VEREDAS_AFECTADAS/VEREDA_VENEZUELA.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la ubicación de la vereda Venezuela, ubicada en el municipio de San Benito de Abad del departamento de Sucre, identificada como una de las veredas afectadas por las inundaciones.  La información en la tabla de atributos incluye el área de la vereda en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area).</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Venezuela, San Benito de Abad, Sucre</t>
+  </si>
+  <si>
+    <t>R0038</t>
+  </si>
+  <si>
+    <t>Ayapel</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/Salidas gr├бficas\Ayapel.png</t>
+  </si>
+  <si>
+    <t>El mapa presenta las veredas afectadas por inundación del municipio de Ayapel</t>
+  </si>
+  <si>
+    <t>Mapa</t>
+  </si>
+  <si>
+    <t>png</t>
+  </si>
+  <si>
+    <t>El mapa muestra de mejor manera los archivos de las gdbs presentados en el proyecto</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Ayapel</t>
+  </si>
+  <si>
+    <t>R0039</t>
+  </si>
+  <si>
+    <t>Guaranda</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/Salidas gr├бficas\Guaranda.png</t>
+  </si>
+  <si>
+    <t>El mapa presenta las veredas afectadas por inundación del municipio de Guaranda</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Guaranda</t>
+  </si>
+  <si>
+    <t>R0040</t>
+  </si>
+  <si>
+    <t>Majagual</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/Salidas gr├бficas\Majagual.png</t>
+  </si>
+  <si>
+    <t>El mapa presenta las veredas afectadas por inundación del municipio de Majagual</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Majagual</t>
+  </si>
+  <si>
+    <t>R0041</t>
+  </si>
+  <si>
+    <t>San_Benito_Abad</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/Salidas gr├бficas\San_Benito_Abad.png</t>
+  </si>
+  <si>
+    <t>El mapa presenta las veredas afectadas por inundación del municipio de San Benito Abad</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, San Benito Abad</t>
+  </si>
+  <si>
+    <t>R0042</t>
+  </si>
+  <si>
+    <t>San_Jacinto_del_Cauca</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/Salidas gr├бficas\San_Jacinto_del_Cauca.png</t>
+  </si>
+  <si>
+    <t>El mapa presenta las veredas afectadas por inundación del municipio de San Jacinto del Cauca</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, San Jacinto del Cauca</t>
+  </si>
+  <si>
+    <t>R0043</t>
+  </si>
+  <si>
+    <t>San_Marcos</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/Salidas gr├бficas\San_Marcos.png</t>
+  </si>
+  <si>
+    <t>El mapa presenta las veredas afectadas por inundación del municipio de San Marcos</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, San Marcos</t>
+  </si>
+  <si>
+    <t>R0044</t>
+  </si>
+  <si>
+    <t>Sucre</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102/03_OTROS/Salidas gr├бficas\Sucre.png</t>
+  </si>
+  <si>
+    <t>El mapa presenta las veredas afectadas por inundación del municipio de Sucre (Sucre)</t>
+  </si>
+  <si>
+    <t>Vereda, vereda afectada, Sucre (Sucre)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,12 +815,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -125,21 +848,57 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
-      </bottom>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,104 +1179,2272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F35" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15">
+      <c r="A39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F39" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15">
+      <c r="A40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15">
+      <c r="A41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F41" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15">
+      <c r="A42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F42" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15">
+      <c r="A43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F43" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F44" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15">
+      <c r="A45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F45" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>247</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>